--- a/Lectures/Lecture 2/BreakEven.xlsx
+++ b/Lectures/Lecture 2/BreakEven.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Lectures 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1293C5-0512-4947-99B2-EFD67E15E4AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935743A2-220B-4379-8437-B94B88636196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="19940" windowHeight="15420" xr2:uid="{02F99CF0-ABD8-A248-A37C-580149E1CC28}"/>
+    <workbookView xWindow="4100" yWindow="1250" windowWidth="19200" windowHeight="10160" xr2:uid="{02F99CF0-ABD8-A248-A37C-580149E1CC28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,20 +421,20 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +442,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -441,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -449,7 +458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
